--- a/tutorial/supply/tests/supplier_excel_data/安全钳数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/安全钳数据表.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/供应商数据表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.tingting\Desktop\新建文件夹\supplier_excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0386944-4130-0945-9B00-FD19E816566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="460" windowWidth="27840" windowHeight="16940" xr2:uid="{4097CB3E-8DF1-364E-9180-12105D07802D}"/>
+    <workbookView xWindow="6120" yWindow="465" windowWidth="27840" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,124 +36,132 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>安全钳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>制造单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设备品种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>型号1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>速度m/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编号1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编号2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>型式试验证书编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>制造日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>型号2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XZ21120090</t>
-  </si>
-  <si>
-    <t>王鲜军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XZ22230535</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HN2500B1</t>
+  </si>
+  <si>
+    <t>0.25≤V≤2.50</t>
+  </si>
+  <si>
+    <t>23084A10868</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23084A10867</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX F32003820160010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>西子电梯科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>杭州沪宁电梯部件股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1990-1-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.1.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSGJ30B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y202308250729</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y202308250757</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX F32002720190020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-804]aaa;@"/>
     <numFmt numFmtId="177" formatCode="000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -169,30 +176,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -212,8 +196,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +223,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -382,10 +379,16 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -398,65 +401,38 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -464,18 +440,42 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="2" xr:uid="{FA0A41F2-0C1F-A042-9AD7-98CA806E37CC}"/>
+    <cellStyle name="Normal" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 2 2" xfId="3" xr:uid="{E1FE7CCF-87F3-234B-AC72-00F287F9C94C}"/>
-    <cellStyle name="常规 2 2 5" xfId="1" xr:uid="{20DEBBEC-3A38-5042-8A3B-2FBFAC1C37BF}"/>
+    <cellStyle name="常规 2 2 2 2" xfId="3"/>
+    <cellStyle name="常规 2 2 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -786,186 +786,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8294DD-9EA4-344B-8940-9C77ACA7462F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11" style="11"/>
+    <col min="4" max="4" width="31.375" style="11" customWidth="1"/>
+    <col min="5" max="6" width="11" style="11"/>
+    <col min="7" max="7" width="16.25" style="11" customWidth="1"/>
+    <col min="8" max="9" width="18.75" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="22.375" style="11" customWidth="1"/>
+    <col min="13" max="15" width="11" style="11"/>
+    <col min="16" max="17" width="17.125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="19" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="27" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="22" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="H3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="J3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="20">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="P3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="28">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
+      <c r="M4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:S1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
